--- a/config_3.9/task_server.xlsx
+++ b/config_3.9/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2438,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
@@ -5884,9 +5884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8358,7 +8358,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="4">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="H96" s="4">
         <v>120</v>
@@ -47322,16 +47322,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_3.9/task_server.xlsx
+++ b/config_3.9/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="439">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1761,10 +1761,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5884,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8358,13 +8354,13 @@
         <v>95</v>
       </c>
       <c r="F96" s="4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="H96" s="4">
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -8378,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10125,7 +10121,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="D104" s="11">
         <v>0</v>
@@ -13805,7 +13801,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D136" s="14">
         <v>3</v>
@@ -13822,7 +13818,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D137" s="14">
         <v>1</v>
@@ -13839,7 +13835,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D138" s="14">
         <v>1</v>
@@ -47322,16 +47318,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_3.9/task_server.xlsx
+++ b/config_3.9/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -5880,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8354,7 +8354,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="H96" s="4">
         <v>120</v>
@@ -8374,7 +8374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -47318,16 +47318,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
